--- a/translation/xlsx/_meak_badend.xlsx
+++ b/translation/xlsx/_meak_badend.xlsx
@@ -273,7 +273,7 @@
     <t>용의자의 여동생으로, 가장 감금기간이 긴 것으로 보이는 실종자(소노자키 미온)로부터 중요한 단서를 얻을 수 있지 않을까 기대했지만,</t>
   </si>
   <si>
-    <t>|y事件後に激しい精神的ショックを負ったものとみられ、心身の治癒のために事情聴取は一定期間見送る予定。</t>
+    <t>事件後に激しい精神的ショックを負ったものとみられ、心身の治癒のために事情聴取は一定期間見送る予定。</t>
   </si>
   <si>
     <t xml:space="preserve"> but it was observed that she had sustained severe mental trauma from the incident, and her inquiry has been postponed in favor of her psychological and physical recovery.</t>
